--- a/Business Logic/DataTest.xlsx
+++ b/Business Logic/DataTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Habit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>Tên</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Chạy bộ</t>
   </si>
   <si>
-    <t>Hút Thuốc</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu</t>
   </si>
   <si>
@@ -58,15 +55,6 @@
     <t>Xây dựng/từ bỏ</t>
   </si>
   <si>
-    <t>Thiền</t>
-  </si>
-  <si>
-    <t>Ngủ trước 10h</t>
-  </si>
-  <si>
-    <t>Dậy 4h</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -182,6 +170,141 @@
   </si>
   <si>
     <t>Về ăn tối với vợ con</t>
+  </si>
+  <si>
+    <t>Gom đồ từ thiện</t>
+  </si>
+  <si>
+    <t>Thiền buổi tối</t>
+  </si>
+  <si>
+    <t>xây dựng</t>
+  </si>
+  <si>
+    <t>hàng tuần</t>
+  </si>
+  <si>
+    <t>18 km</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Đi làm về nhớ chạy bộ</t>
+  </si>
+  <si>
+    <t>Để cải thiện sức khỏe</t>
+  </si>
+  <si>
+    <t>Ngày theo dõi</t>
+  </si>
+  <si>
+    <t>3/5/7/cn</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>24/9/2018</t>
+  </si>
+  <si>
+    <t>7 notes</t>
+  </si>
+  <si>
+    <t>CV &amp; HT</t>
+  </si>
+  <si>
+    <t>hàng tháng</t>
+  </si>
+  <si>
+    <t>4 cuốn</t>
+  </si>
+  <si>
+    <t>3/4/5/6/7/cn</t>
+  </si>
+  <si>
+    <t>Hãy đọc nhiều sách về chuyên môn hơn</t>
+  </si>
+  <si>
+    <t>5 notes</t>
+  </si>
+  <si>
+    <t>hàng ngày</t>
+  </si>
+  <si>
+    <t>y/n</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Nhớ ghi chép toàn bộ chi tiêu</t>
+  </si>
+  <si>
+    <t>Đọc sách đi rồi hãy ngủ</t>
+  </si>
+  <si>
+    <t>Đến giờ ghi chép chi tiêu rồi</t>
+  </si>
+  <si>
+    <t>Về ăn cơm với vợ con</t>
+  </si>
+  <si>
+    <t>3 lần</t>
+  </si>
+  <si>
+    <t>Hôm nay có về ăn với con được không</t>
+  </si>
+  <si>
+    <t>Thói quen quan trọng nhất</t>
+  </si>
+  <si>
+    <t>Đi làm đúng giờ</t>
+  </si>
+  <si>
+    <t>2/3/4/5/6</t>
+  </si>
+  <si>
+    <t>Đến giờ đi làm rồi</t>
+  </si>
+  <si>
+    <t>Trừ lương cuối tháng</t>
+  </si>
+  <si>
+    <t>Đưa gia đình về thăm ông bà</t>
+  </si>
+  <si>
+    <t>hàng năm</t>
+  </si>
+  <si>
+    <t>2 lần</t>
+  </si>
+  <si>
+    <t>Ba mẹ già rồi đó</t>
+  </si>
+  <si>
+    <t>Có lương rồi, gửi tiền tiền tiết kiệm thôi</t>
+  </si>
+  <si>
+    <t>Cuối năm sau mua nhà</t>
+  </si>
+  <si>
+    <t>Từ bỏ</t>
+  </si>
+  <si>
+    <t>Vì vợ vì con</t>
+  </si>
+  <si>
+    <t>Dậy 5h sáng</t>
+  </si>
+  <si>
+    <t>2/3/4/6/7/cn</t>
+  </si>
+  <si>
+    <t>Sắp cháy rồi sắp cháy rồi</t>
+  </si>
+  <si>
+    <t>Cố lên, còn kỳ này nữa thôi</t>
   </si>
 </sst>
 </file>
@@ -248,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,6 +386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,25 +671,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -582,56 +708,335 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -662,28 +1067,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
@@ -694,10 +1099,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -721,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -751,13 +1156,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -781,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -811,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -841,13 +1246,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -868,7 +1273,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -892,10 +1297,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -916,10 +1321,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -940,10 +1345,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -964,10 +1369,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -988,10 +1393,10 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1012,10 +1417,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1036,10 +1441,10 @@
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1060,10 +1465,10 @@
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -1084,10 +1489,10 @@
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
@@ -1108,10 +1513,10 @@
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
@@ -1132,13 +1537,13 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2">
         <v>512</v>
@@ -1156,10 +1561,10 @@
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -1180,10 +1585,10 @@
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1204,10 +1609,10 @@
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1228,10 +1633,10 @@
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -1252,10 +1657,10 @@
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -1276,10 +1681,10 @@
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E27" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -1300,10 +1705,10 @@
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -1324,10 +1729,10 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
@@ -1347,15 +1752,51 @@
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>425</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5183</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1245</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2402083735288443</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>327</v>
+      </c>
+      <c r="I31" s="2">
+        <v>878</v>
+      </c>
+      <c r="J31" s="2">
+        <v>124</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14123006833712984</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.45">
